--- a/test/google returns.xlsx
+++ b/test/google returns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="daily" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -163,6 +163,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -733,11 +734,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136167576"/>
-        <c:axId val="2136164728"/>
+        <c:axId val="2047845704"/>
+        <c:axId val="2047849928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136167576"/>
+        <c:axId val="2047845704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136164728"/>
+        <c:crossAx val="2047849928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -754,7 +755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136164728"/>
+        <c:axId val="2047849928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136167576"/>
+        <c:crossAx val="2047845704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,7 +812,7 @@
             <c:numRef>
               <c:f>daily!$H$1:$H$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-0.05</c:v>
@@ -895,21 +896,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2139357848"/>
-        <c:axId val="2125471416"/>
+        <c:axId val="2047753048"/>
+        <c:axId val="2047756056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2139357848"/>
+        <c:axId val="2047753048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125471416"/>
+        <c:crossAx val="2047756056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -917,7 +918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125471416"/>
+        <c:axId val="2047756056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139357848"/>
+        <c:crossAx val="2047753048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1013,11 +1014,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141553192"/>
-        <c:axId val="2137330696"/>
+        <c:axId val="2047798600"/>
+        <c:axId val="2047801496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141553192"/>
+        <c:axId val="2047798600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137330696"/>
+        <c:crossAx val="2047801496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137330696"/>
+        <c:axId val="2047801496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141553192"/>
+        <c:crossAx val="2047798600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1096,7 +1097,7 @@
             <c:numRef>
               <c:f>monthly!$A$23:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-0.05</c:v>
@@ -1180,21 +1181,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141675832"/>
-        <c:axId val="2137807384"/>
+        <c:axId val="2046953544"/>
+        <c:axId val="2046956488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141675832"/>
+        <c:axId val="2046953544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137807384"/>
+        <c:crossAx val="2046956488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1202,7 +1203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137807384"/>
+        <c:axId val="2046956488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141675832"/>
+        <c:crossAx val="2046953544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1684,13 +1685,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1703,7 +1705,7 @@
       <c r="D1" s="1">
         <v>558.46</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="6">
         <v>-0.05</v>
       </c>
       <c r="I1">
@@ -1731,7 +1733,7 @@
         <f>ROUND(E2,3)&amp;F2</f>
         <v>0.003,</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>-4.1000000000000002E-2</v>
       </c>
       <c r="I2">
@@ -1759,7 +1761,7 @@
         <f t="shared" ref="G3:G66" si="1">ROUND(E3,3)&amp;F3</f>
         <v>-0.005,</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>-3.2000000000000001E-2</v>
       </c>
       <c r="I3">
@@ -1787,7 +1789,7 @@
         <f t="shared" si="1"/>
         <v>0.018,</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>-2.3E-2</v>
       </c>
       <c r="I4">
@@ -1815,7 +1817,7 @@
         <f t="shared" si="1"/>
         <v>0,</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>-1.4E-2</v>
       </c>
       <c r="I5">
@@ -1843,7 +1845,7 @@
         <f t="shared" si="1"/>
         <v>0.005,</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>-4.9999999999999897E-3</v>
       </c>
       <c r="I6">
@@ -1871,7 +1873,7 @@
         <f t="shared" si="1"/>
         <v>-0.047,</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>3.9999999999999897E-3</v>
       </c>
       <c r="I7">
@@ -1899,7 +1901,7 @@
         <f t="shared" si="1"/>
         <v>-0.009,</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I8">
@@ -1927,7 +1929,7 @@
         <f t="shared" si="1"/>
         <v>0.031,</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I9">
@@ -1955,7 +1957,7 @@
         <f t="shared" si="1"/>
         <v>0.017,</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>3.1E-2</v>
       </c>
       <c r="I10">
@@ -4426,8 +4428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4490,7 +4492,7 @@
         <v>559.89</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:E10" si="0">C4/C3-1</f>
+        <f t="shared" ref="D4:D10" si="0">C4/C3-1</f>
         <v>6.3095735389055552E-2</v>
       </c>
       <c r="E4" t="s">
@@ -4647,7 +4649,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>-0.05</v>
       </c>
       <c r="B23">
@@ -4655,7 +4657,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>-3.9E-2</v>
       </c>
       <c r="B24">
@@ -4663,7 +4665,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>-2.8000000000000001E-2</v>
       </c>
       <c r="B25">
@@ -4671,7 +4673,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>-1.7000000000000001E-2</v>
       </c>
       <c r="B26">
@@ -4679,7 +4681,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="B27">
@@ -4687,7 +4689,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>4.9999999999999897E-3</v>
       </c>
       <c r="B28">
@@ -4695,7 +4697,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>1.59999999999999E-2</v>
       </c>
       <c r="B29">
@@ -4703,7 +4705,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>2.6999999999999899E-2</v>
       </c>
       <c r="B30">
@@ -4711,7 +4713,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="B31">
@@ -4719,7 +4721,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="B32">
